--- a/management/project description.xlsx
+++ b/management/project description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francesco/Documents/GitHub/Response-div-stability-competitive-communities/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C8A403-CDD6-5B4A-85D5-AC3CAB56C1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7060C12F-C480-814E-BC20-38DD42902F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="500" windowWidth="37440" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fundamentals" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
   <si>
     <t>First name</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>Hämmig</t>
+  </si>
+  <si>
+    <t>TilHämmig</t>
+  </si>
+  <si>
+    <t>0009-0004-9469-680X</t>
   </si>
 </sst>
 </file>
@@ -300,10 +306,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -755,7 +760,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -860,8 +865,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -945,14 +950,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" s="5" t="str">
         <f>_xlfn.CONCAT(A5,B5)</f>
         <v>TilHämmig</v>
@@ -999,10 +1006,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1128,7 +1135,7 @@
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1136,13 +1143,16 @@
         <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>48</v>
       </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
@@ -1174,6 +1184,54 @@
       </c>
       <c r="B21" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1243,7 @@
           <x14:formula1>
             <xm:f>'contribution types (think twice'!$A$2:$A$1003</xm:f>
           </x14:formula1>
-          <xm:sqref>B18:B989 B2:B16</xm:sqref>
+          <xm:sqref>B2:B989</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
